--- a/biology/Botanique/Brahea/Brahea.xlsx
+++ b/biology/Botanique/Brahea/Brahea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brahea est un genre de la famille des Arécacées (palmiers). Il a été nommé ainsi en souvenir de l’astronome danois Tycho Brahe, né en 1546 et mort en 1601.
 Synonymes : Erythea, Glaucotheca
@@ -512,11 +524,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Coryphoideae
 Tribu des Trachycarpeae
-Ce genre  partage cette tribu (des "non encore placés") avec six autres genres :  Acoelorrhaphe, Colpothrinax,  Copernicia,  Pritchardia,  Serenoa,  Washingtonia [1].
+Ce genre  partage cette tribu (des "non encore placés") avec six autres genres :  Acoelorrhaphe, Colpothrinax,  Copernicia,  Pritchardia,  Serenoa,  Washingtonia .
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre comprend des espèces localisées au Mexique, une espèce (Brahea edulis) endémique à l’île de Guadalupe près de Baja California, et deux autres espèces (Brahea dulcis et Brahea nitida) qui croissent jusqu’au Honduras, au Guatemala, à Belize, au Nicaragua et à El Salvador.
 Les espèces du genre Brahea croissent naturellement dans les zones arides à semi-désertiques, dans les sites rocheux et composés d'une végétation basse. Toutefois, certaines espèces (dulcis, pimo, nitida et moorei) peuvent se développer en ombre partielle.
@@ -578,7 +594,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Stipe : hormis pour l'espèce Brahea decumbens, le stipe est robuste et droit. Il peut atteindre 15 mètres de haut chez certaines espèces.
 Couronne : la couronne se compose de feuilles disposées en éventail, de façon plus ou moins serrées.
@@ -611,7 +629,9 @@
           <t>Culture et résistance moyenne au froid de quelques espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Brahea bénéficie d'une croissance assez lente. Il comprend des palmiers qui sont assez rustiques, comme le montrent les chiffres ci-dessous.
 Brahea armata (-12 °C)
@@ -647,7 +667,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Brahea aculeata (Brandegee) H.E.Moore, 1980.
 Brahea armata S.Watson, 1876.
